--- a/2º Sprint/Data/PIB IPEA.xlsx
+++ b/2º Sprint/Data/PIB IPEA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\GitHub\API FATEC\Estudo-estatistico-Ferroviario\2º Sprint\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913CEA0-E9F8-4FF4-AAFA-B30C9891D88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36767490-4B86-40BE-BCC6-9A32913D2CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3551296C-CC33-45DE-BB78-2CBE20A412F2}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3551296C-CC33-45DE-BB78-2CBE20A412F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
   <si>
     <t>2011.01</t>
   </si>
@@ -496,9 +474,6 @@
   </si>
   <si>
     <t>PIB (R$ Milhões)</t>
-  </si>
-  <si>
-    <t>Total 2011:</t>
   </si>
 </sst>
 </file>
@@ -563,7 +538,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -865,7 +840,7 @@
       <selection activeCell="B145" sqref="A1:B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
   </cols>
@@ -2037,20 +2012,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CB3BB5-1701-42FE-88A7-DFFBE62C2B75}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -2058,22 +2033,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>333255.59999999998</v>
       </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" t="e" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">SOMA(B2:B13)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2081,7 +2049,7 @@
         <v>334982</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2089,7 +2057,7 @@
         <v>347879.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2065,7 @@
         <v>349049.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2073,7 @@
         <v>366256.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2113,7 +2081,7 @@
         <v>370951.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2089,7 @@
         <v>373143.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2097,7 @@
         <v>376769.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +2105,7 @@
         <v>361724.6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2145,7 +2113,7 @@
         <v>378491</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2121,7 @@
         <v>389560.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2129,7 @@
         <v>391595.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2169,7 +2137,7 @@
         <v>367215.4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2177,7 +2145,7 @@
         <v>367177.3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3219,8 +3187,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D2" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>